--- a/src/exsextractor/template/conf.template.xlsx
+++ b/src/exsextractor/template/conf.template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="4700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -564,18 +564,18 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -589,26 +589,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
@@ -619,41 +621,39 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -665,29 +665,29 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -695,7 +695,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -853,7 +853,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
     </row>
   </sheetData>
